--- a/db/SpliceDiseaseDB.2020.xlsx
+++ b/db/SpliceDiseaseDB.2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="22500" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,21 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>#Chr</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Stop</t>
-  </si>
-  <si>
-    <t>Ref</t>
-  </si>
-  <si>
-    <t>Call</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="121">
+  <si>
+    <t>#CHROM</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>ALT</t>
   </si>
   <si>
     <t>Genome</t>
@@ -39,9 +36,6 @@
     <t>Gene Symbol</t>
   </si>
   <si>
-    <t>Transcript</t>
-  </si>
-  <si>
     <t>cHGVS</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>Splicing Effect</t>
   </si>
   <si>
-    <t>Observation</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -84,9 +75,6 @@
     <t>SELP</t>
   </si>
   <si>
-    <t>NM_003005.4</t>
-  </si>
-  <si>
     <t>NM_003005.3:c.2346G&gt;A</t>
   </si>
   <si>
@@ -96,13 +84,302 @@
     <t>RNA-seq</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>YES</t>
   </si>
   <si>
-    <t>exon 14 skipping</t>
-  </si>
-  <si>
     <t>We identify rs6128 as a platelet sQTL and define an rs6128-dependent association between SELP exon 14 skipping and race. In vitro experiments demonstrate that this single nucleotide variant directly affects exon 14 skipping and changes the ratio of transmembrane versus soluble P-selectin protein production.</t>
+  </si>
+  <si>
+    <t>chr14</t>
+  </si>
+  <si>
+    <t>TGM1</t>
+  </si>
+  <si>
+    <t>NM_000359.2:c.1491G&gt;A</t>
+  </si>
+  <si>
+    <t>lamellar ichthyosis</t>
+  </si>
+  <si>
+    <t>RNA-Seq data revealed that this nucleotide change abolished the canonical splice site at the exon 10/intron 10 border, and instead, the patient’s mRNA was processed from two alternate splice sites, the major one residing within intron 10 and the other one within exon 10, resulting in partial retention of intron 10 sequences</t>
+  </si>
+  <si>
+    <t>chr12</t>
+  </si>
+  <si>
+    <t>KRT5</t>
+  </si>
+  <si>
+    <t>NM_000424.3:c.1440-1G&gt;A</t>
+  </si>
+  <si>
+    <t>epidermolysis bullosa</t>
+  </si>
+  <si>
+    <t>A Sashimi plot revealed that this homozygous mutation rendered the canonical splice site at the intron 7/exon 8 border nonfunctional, and instead an AG sequence six nucleotides upstream within exon 8 was used as an alternate acceptor splice site and led to retention of intron 7 and 8 sequences in the patient's cells</t>
+  </si>
+  <si>
+    <t>chr10</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>COL17A1</t>
+  </si>
+  <si>
+    <t>NM_000494.4:c.202del</t>
+  </si>
+  <si>
+    <t>epidermolysis bullosa simplex</t>
+  </si>
+  <si>
+    <t>this frameshift mutation was predicted to result in synthesis of a truncated polypeptide (p.Thr68LeufsTer106). Sashimi plot of RNA-Seq revealed complex aberrant splicing because of this frameshift mutation. The donor splice site at the 30 end of exon 3 of COL17A1 utilized the acceptor splice site at the intron 3 and exon 4 border, resulting in partial skipping of exon 4 and 6 (asterisks)</t>
+  </si>
+  <si>
+    <t>chr16</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>SPG7</t>
+  </si>
+  <si>
+    <t>NM_003119.3:c.286+853A&gt;G</t>
+  </si>
+  <si>
+    <t>RT-PCR</t>
+  </si>
+  <si>
+    <t>Hereditary spastic paraplegias</t>
+  </si>
+  <si>
+    <t>Gel analysis and Sanger sequencing revealed that a 75 bp in‐frame pseudoexon was retained in the cDNA as a consequence of the c.286 + 853A&gt;G variant</t>
+  </si>
+  <si>
+    <t>chrX</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>NM_004006.1:c.1351G&gt;T</t>
+  </si>
+  <si>
+    <t>Duchenne/Becker muscular dystrophy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence from nucleotide r.1332 to r.1359 is deleted from the transcript (Partial skipping exon 12:r.1332_1359del) </t>
+  </si>
+  <si>
+    <t>NM_004006.1:c.2949+964G&gt;A</t>
+  </si>
+  <si>
+    <t>New exon is created from intron 22 and its sequence from positions 2949 + 889 to 2949 + 1147 is inserted in the transcript (r.2949_2950ins2949+889_2949+1147)</t>
+  </si>
+  <si>
+    <t>NM_004006.1:c.9225-285A&gt;G</t>
+  </si>
+  <si>
+    <t>New exon is created from intron 62 and its sequence from nucleotide r.9225-347 to r.9225-290 is inserted in the transcript (r.9925_9926ins9225-347_9225-290)</t>
+  </si>
+  <si>
+    <t>chr17</t>
+  </si>
+  <si>
+    <t>NF1</t>
+  </si>
+  <si>
+    <t>NM_000267.3:c.1261-2A&gt;C</t>
+  </si>
+  <si>
+    <t>neurofibromatosis type-I</t>
+  </si>
+  <si>
+    <t>Sequence from nucleotide r.1261 to r.1284 is deleted from the transcript (Partial skipping exon 12:r.1261_1284del)</t>
+  </si>
+  <si>
+    <t>chr2</t>
+  </si>
+  <si>
+    <t>TTN</t>
+  </si>
+  <si>
+    <t>NM_001267550.1:c.19426+2T&gt;A</t>
+  </si>
+  <si>
+    <t>titinopathy</t>
+  </si>
+  <si>
+    <t>Sequence from nucleotide r.19148 to r.19426 is deleted from the transcript (Complete skipping ex67:r.19148_19426del)</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>NM_001267550.1:c.107377+2dup</t>
+  </si>
+  <si>
+    <t>First nucleotide of intron 362 is inserted in the transcript (r.107377_107378ins107377 + 1)</t>
+  </si>
+  <si>
+    <t>NM_001267550.1:c.15776-1G&gt;T</t>
+  </si>
+  <si>
+    <t>Intron 54 sequence is inserted in the transcript. NOTE: nucleotide 15776-1 changed from g to t (Intronic retention: r.15775_15776ins[15775+1_15776-1])</t>
+  </si>
+  <si>
+    <t>NM_001267550.1:c.67349-2A&gt;C</t>
+  </si>
+  <si>
+    <t>a) the sequence from nucleotide r.67349 to r.67363 is deleted from the transcript (Partial skipping ex320:r.67349_67363del)
+b) the intron 319 sequence is inserted in the transcript. NOTE: nucleotide 67349-2 changed from a to c (Intronic retention: r.67438_67439ins[67438+1_67349-1])</t>
+  </si>
+  <si>
+    <t>NM_001267550.1:c.4646-1G&gt;A</t>
+  </si>
+  <si>
+    <t>Sequence from nucleotide r.4646 to r.4659 is deleted from the transcript (Partial skipping exon 26:r.4646_4659del)</t>
+  </si>
+  <si>
+    <t>chr13</t>
+  </si>
+  <si>
+    <t>ATP7B</t>
+  </si>
+  <si>
+    <t>NM_000053.3:c.1620C&gt;T</t>
+  </si>
+  <si>
+    <t>Minigene</t>
+  </si>
+  <si>
+    <t>In vitro mini gene experiment confirmed that the c.1620C&gt;T (p.L540L) and c.3888C&gt;T (p.A1296A) variants could lead to abnormal splicing of the corresponding exons, resulting in complete skipping of exon 4 and 25% increase in the skipping of exon 18, respectively.</t>
+  </si>
+  <si>
+    <t>NM_000053.3:c.3888C&gt;T</t>
+  </si>
+  <si>
+    <t>chr22</t>
+  </si>
+  <si>
+    <t>EP300</t>
+  </si>
+  <si>
+    <t>NM_001429.3:c.4173-10T&gt;G</t>
+  </si>
+  <si>
+    <t>Bladder Urothelial Carcinoma</t>
+  </si>
+  <si>
+    <t>The intronic mutations of EP300 and KMT2B, which are 10 and 8 bp away from the nearest exon, respectively, create cryptic AG splice sites due to the T -&gt; G mutations. The result is exon extension and generation of in-frame and frameshifting products, respectively. 9 bp exon extension (in frame)</t>
+  </si>
+  <si>
+    <t>chr19</t>
+  </si>
+  <si>
+    <t>KMT2B</t>
+  </si>
+  <si>
+    <t>NM_014727.2:c.3790-8T&gt;G</t>
+  </si>
+  <si>
+    <t>Esophageal carcinoma</t>
+  </si>
+  <si>
+    <t>The intronic mutations of EP300 and KMT2B, which are 10 and 8 bp away from the nearest exon, respectively, create cryptic AG splice sites due to the T -&gt; G mutations. The result is exon extension and generation of in-frame and frameshifting products, respectively. 7 bp exon extension (frameshift)</t>
+  </si>
+  <si>
+    <t>BCOR</t>
+  </si>
+  <si>
+    <t>NM_001123385.1:c.3238+3A&gt;T</t>
+  </si>
+  <si>
+    <t>Liver hepatocellular carcinoma</t>
+  </si>
+  <si>
+    <t>intronic mutations close to the acceptor AG and donor GT sites weaken the canonical splice sites and result in the AltSSs, which produce a 29-bp exon extension in MAP3K1 and a 9-bp exon shrinkage in BCOR.</t>
+  </si>
+  <si>
+    <t>chr5</t>
+  </si>
+  <si>
+    <t>MAP3K1</t>
+  </si>
+  <si>
+    <t>NM_005921.1:c.3667-14C&gt;A</t>
+  </si>
+  <si>
+    <t>Uterine Corpus Endometrial Carcinoma</t>
+  </si>
+  <si>
+    <t>MDM2</t>
+  </si>
+  <si>
+    <t>NM_002392.5:c.918+758A&gt;G</t>
+  </si>
+  <si>
+    <t>a single A &gt; G intronic mutation in MDM2 from bladder cancer introduces a new 118-bp exon before the last canonical exon (Fig. 4). This new exon carries a stop codon, leading to the truncation of the protein transcript and the loss of a RING-type zinc-finger domain.</t>
+  </si>
+  <si>
+    <t>NFE2L2</t>
+  </si>
+  <si>
+    <t>NM_006164.4:c.*2647G&gt;C</t>
+  </si>
+  <si>
+    <t>Lung squamous cell carcinoma</t>
+  </si>
+  <si>
+    <t>an intergenic C &gt; G mutation 2166 bp from the 3′-UTR of NFE2L2 in a lung cancer case leads to a new junction that pairs with a site embedded in the start of the last exon of NFE2L2 (Fig. 4), potentially disrupting NFE2L2/KEAP1 interaction. This splice alteration results in the loss of most of the transcript of the last exon and the mutant transcript has &gt;10 RNA-supporting reads for the junction.</t>
+  </si>
+  <si>
+    <t>STK11</t>
+  </si>
+  <si>
+    <t>NM_000455.4:c.735-199G&gt;A</t>
+  </si>
+  <si>
+    <t>Head and Neck squamous cell carcinoma</t>
+  </si>
+  <si>
+    <t>two proximal G &gt; A intronic mutations in STK11 from a head–neck cancer sample introduce a off-frame 130-bp exon between exons 5 and 6 (Fig. 4), which was also observed in previous study</t>
+  </si>
+  <si>
+    <t>chr3</t>
+  </si>
+  <si>
+    <t>CAND2</t>
+  </si>
+  <si>
+    <t>NM_001162499.1:c.*452C&gt;G</t>
+  </si>
+  <si>
+    <t>We also observed that some mutations affect more than one gene. For instance, we found one RPL32-CAND2 fusion transcript caused by cryptic splice sites activated by a 3′-UTR mutation in CAND2 (Supplementary Fig. 5). The 12875933C &gt; G mutation at chromosome 3 disrupts the last coding exon of RPL32 by skipping its stop codon and fusing the transcript with a partial 3′-UTR of CAND2.</t>
+  </si>
+  <si>
+    <t>GBA</t>
+  </si>
+  <si>
+    <t>NM_000157.4:c.999+242C&gt;A</t>
+  </si>
+  <si>
+    <t>PCR-RFLP</t>
+  </si>
+  <si>
+    <t>Gaucher disease</t>
+  </si>
+  <si>
+    <t>This mutation creates a new donor splice site leading to aberrant splicing and resulting in the insertion of the first 239nt of intron 7 as a pseudoexon in the mRNA, creating a premature stop codon.</t>
   </si>
 </sst>
 </file>
@@ -110,12 +387,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +403,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -145,38 +429,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14.05"/>
-      <color rgb="FF212529"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF724128"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -185,7 +437,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,30 +452,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,33 +474,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,9 +529,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,17 +546,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -323,187 +582,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,11 +800,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,6 +820,47 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,58 +880,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,152 +893,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,75 +1046,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1153,29 +1404,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="28.125" customWidth="1"/>
-    <col min="9" max="9" width="30.125" customWidth="1"/>
-    <col min="10" max="10" width="17.875" customWidth="1"/>
-    <col min="11" max="12" width="16.375" customWidth="1"/>
-    <col min="13" max="13" width="30.625" customWidth="1"/>
-    <col min="14" max="14" width="20.625" customWidth="1"/>
-    <col min="15" max="15" width="38.25" customWidth="1"/>
-    <col min="16" max="16" width="183.5" customWidth="1"/>
-    <col min="17" max="17" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="13.5390625" customWidth="1"/>
+    <col min="6" max="6" width="14.59375" customWidth="1"/>
+    <col min="7" max="7" width="30.125" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="10" width="16.375" customWidth="1"/>
+    <col min="11" max="11" width="30.625" customWidth="1"/>
+    <col min="12" max="12" width="20.625" customWidth="1"/>
+    <col min="13" max="13" width="183.5" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1209,70 +1457,967 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="B2">
+        <v>169562904</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" ht="20.25" spans="1:16">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3">
-        <v>169562903</v>
-      </c>
-      <c r="C2">
-        <v>169562904</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2">
+        <v>31852401</v>
+      </c>
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="7">
-        <v>31852401</v>
-      </c>
-      <c r="L2" s="8" t="s">
+    </row>
+    <row r="3" ht="28.5" spans="1:13">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="N2" t="s">
+      <c r="B3">
+        <v>24725195</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
+      <c r="I3">
+        <v>32446329</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
         <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="1:13">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>52909617</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>32446329</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:13">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>105837179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>32446329</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="1:13">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>89577853</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6">
+        <v>31854126</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:13">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>32632551</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7">
+        <v>32597815</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:13">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>32489317</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8">
+        <v>32597815</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:13">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>31279418</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9">
+        <v>32597815</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:13">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10">
+        <v>29533256</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10">
+        <v>32597815</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:13">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>179593225</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11">
+        <v>32597815</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:13">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12">
+        <v>179392998</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12">
+        <v>32597815</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:13">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>179598245</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13">
+        <v>32597815</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="1:13">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <v>179444577</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14">
+        <v>32597815</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:13">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15">
+        <v>179642045</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15">
+        <v>32597815</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="1:13">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16">
+        <v>52542667</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16">
+        <v>33179228</v>
+      </c>
+      <c r="J16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" spans="1:13">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17">
+        <v>52511627</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17">
+        <v>33179228</v>
+      </c>
+      <c r="J17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" spans="1:13">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18">
+        <v>41565497</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18">
+        <v>33149122</v>
+      </c>
+      <c r="J18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" spans="1:13">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19">
+        <v>36216616</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19">
+        <v>33149122</v>
+      </c>
+      <c r="J19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" ht="17.25" spans="1:13">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20">
+        <v>39930223</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20">
+        <v>33149122</v>
+      </c>
+      <c r="J20" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25" spans="1:13">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21">
+        <v>56179340</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21">
+        <v>33149122</v>
+      </c>
+      <c r="J21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" ht="17.25" spans="1:13">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3">
+        <v>69231287</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22">
+        <v>33149122</v>
+      </c>
+      <c r="J22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" ht="17.25" spans="1:13">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23">
+        <v>178092866</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23">
+        <v>33149122</v>
+      </c>
+      <c r="J23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" ht="17.25" spans="1:13">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24">
+        <v>1221013</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24">
+        <v>33149122</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" ht="17.25" spans="1:13">
+      <c r="A25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25">
+        <v>12875933</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25">
+        <v>33149122</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>110</v>
+      </c>
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" ht="17.25" spans="1:13">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>155206890</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26">
+        <v>31943857</v>
+      </c>
+      <c r="J26" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" t="s">
+        <v>119</v>
+      </c>
+      <c r="L26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1291,7 +2436,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1308,7 +2453,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
